--- a/config_4.13/game_module_config.xlsx
+++ b/config_4.13/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1042">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4271,38 +4271,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_012_hedeng</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（河灯）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动boss皮肤（河灯）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_lb1_style/act_003_tylb1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_011_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_008_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_act_base_style/sys_act_base_normal_001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_012</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_052_qfhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4315,10 +4291,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2021年4月16日 23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_gifts</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4335,14 +4307,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/ act_001_ltlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙腾礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用礼包皮肤配置</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4360,6 +4324,58 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_053_xcns</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除达人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_053_XCNSManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年4月12日 23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年4月19日 23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_012_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_013</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_014_caiqiu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（彩球）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（彩球）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_009_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/ act_002_ltlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4988,13 +5004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I336"/>
+  <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F336" sqref="F336"/>
+      <selection pane="bottomRight" activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13062,10 +13078,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>1019</v>
+        <v>1034</v>
       </c>
       <c r="C317" s="43" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="E317" s="44">
         <v>1</v>
@@ -13085,10 +13101,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>1015</v>
+        <v>1036</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>1017</v>
+        <v>1038</v>
       </c>
       <c r="E318" s="44">
         <v>1</v>
@@ -13108,7 +13124,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>1020</v>
+        <v>1039</v>
       </c>
       <c r="C319" s="43" t="s">
         <v>1010</v>
@@ -13131,7 +13147,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="46" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C320" s="43" t="s">
         <v>1011</v>
@@ -13154,7 +13170,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="48" t="s">
-        <v>1022</v>
+        <v>1035</v>
       </c>
       <c r="C321" s="43" t="s">
         <v>1013</v>
@@ -13203,7 +13219,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="49" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C323" s="14" t="s">
         <v>1012</v>
@@ -13461,13 +13477,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="37" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="C333" s="18" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="E333" s="16">
         <v>1</v>
@@ -13479,7 +13495,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="14" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13487,13 +13503,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="37" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="C334" s="18" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="D334" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="E334" s="16">
         <v>1</v>
@@ -13505,7 +13521,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="14" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13513,10 +13529,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="37" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C335" s="18" t="s">
-        <v>1032</v>
+        <v>1040</v>
+      </c>
+      <c r="C335" s="14" t="s">
+        <v>1041</v>
       </c>
       <c r="E335" s="16">
         <v>1</v>
@@ -13528,7 +13544,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="14" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13536,13 +13552,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="37" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="C336" s="18" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="E336" s="16">
         <v>1</v>
@@ -13554,7 +13570,33 @@
         <v>1</v>
       </c>
       <c r="I336" s="14" t="s">
-        <v>1037</v>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" s="15">
+        <v>336</v>
+      </c>
+      <c r="B337" s="37" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C337" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D337" s="8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E337" s="16">
+        <v>1</v>
+      </c>
+      <c r="F337" s="16">
+        <v>1</v>
+      </c>
+      <c r="G337" s="16">
+        <v>1</v>
+      </c>
+      <c r="I337" s="14" t="s">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.13/game_module_config.xlsx
+++ b/config_4.13/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="1038">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4344,6 +4344,22 @@
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_lwgp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王贡品</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSLWGPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4972,13 +4988,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I335"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
+      <selection pane="bottomRight" activeCell="F336" sqref="F336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13513,6 +13529,32 @@
       </c>
       <c r="I335" s="14" t="s">
         <v>1033</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" s="15">
+        <v>335</v>
+      </c>
+      <c r="B336" s="37" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C336" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D336" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E336" s="16">
+        <v>1</v>
+      </c>
+      <c r="F336" s="16">
+        <v>1</v>
+      </c>
+      <c r="G336" s="16">
+        <v>1</v>
+      </c>
+      <c r="I336" s="14" t="s">
+        <v>1037</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.13/game_module_config.xlsx
+++ b/config_4.13/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5007,10 +5007,10 @@
   <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C335" sqref="C335"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5251,13 +5251,13 @@
         <v>29</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>639</v>
@@ -5277,13 +5277,13 @@
         <v>32</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>640</v>
@@ -5303,13 +5303,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>638</v>
@@ -5329,13 +5329,13 @@
         <v>38</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>639</v>
@@ -5355,13 +5355,13 @@
         <v>41</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>638</v>
@@ -5745,13 +5745,13 @@
         <v>85</v>
       </c>
       <c r="E28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>640</v>
@@ -5771,13 +5771,13 @@
         <v>88</v>
       </c>
       <c r="E29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>639</v>
@@ -5797,13 +5797,13 @@
         <v>91</v>
       </c>
       <c r="E30" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>638</v>
@@ -6057,13 +6057,13 @@
         <v>121</v>
       </c>
       <c r="E40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>639</v>
@@ -6265,13 +6265,13 @@
         <v>145</v>
       </c>
       <c r="E48" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>639</v>
@@ -6497,13 +6497,13 @@
         <v>167</v>
       </c>
       <c r="E57" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>639</v>
@@ -6575,13 +6575,13 @@
         <v>174</v>
       </c>
       <c r="E60" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="32" t="s">
         <v>972</v>
@@ -6601,13 +6601,13 @@
         <v>177</v>
       </c>
       <c r="E61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>638</v>
@@ -6913,13 +6913,13 @@
         <v>213</v>
       </c>
       <c r="E73" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="11" t="s">
         <v>639</v>

--- a/config_4.13/game_module_config.xlsx
+++ b/config_4.13/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4371,11 +4371,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/ act_002_ltlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>欢乐礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_ltlb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5007,10 +5007,10 @@
   <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomRight" activeCell="C339" sqref="C339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13529,10 +13529,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C335" s="14" t="s">
         <v>1040</v>
-      </c>
-      <c r="C335" s="14" t="s">
-        <v>1041</v>
       </c>
       <c r="E335" s="16">
         <v>1</v>
